--- a/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
@@ -451,687 +451,927 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2554</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2165</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8694</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5688</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4103</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3532</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>007056</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>银华积极精选混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>91.50</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>4.06</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>008884</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>博远博锐混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>74.93</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.10</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005515</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>008885</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>博远博锐混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>74.93</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>3.10</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004905</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞生物医药灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005805</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞医疗健康混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010031</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞生物医药灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.21</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011453</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞医疗健康混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003230</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003231</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>960024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实成长收益混合H</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>74.37</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>070001</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实成长收益混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>74.37</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001280</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银华聚利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005515</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005516</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1.02</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005516</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002161</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>银华万物互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>21.17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002326</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银华聚利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>161914</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>161915</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002269</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>银华大数据灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005498</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>银华积极成长混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1141,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,15 +1402,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005328</t>
+          <t>070001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源价值策略股票</t>
+          <t>嘉实成长收益混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.51</t>
+          <t>31.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1092</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960024</t>
+          <t>002269</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实成长收益混合H</t>
+          <t>银华大数据灵活配置定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>72.70</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4924</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007056</t>
+          <t>004905</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华积极精选混合</t>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.41</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2891</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010585</t>
+          <t>001280</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信医药消费股票A</t>
+          <t>银华聚利灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010586</t>
+          <t>010585</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信医药消费股票C</t>
+          <t>创金合信医药消费股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.36</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.79</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001280</t>
+          <t>005498</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华聚利灵活配置混合A</t>
+          <t>银华积极成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83.71</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002326</t>
+          <t>010586</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银华聚利灵活配置混合C</t>
+          <t>创金合信医药消费股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>83.71</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>070001</t>
+          <t>005520</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实成长收益混合A</t>
+          <t>国投瑞银创新医疗灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>72.70</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002210</t>
+          <t>005328</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票A</t>
+          <t>前海开源价值策略股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.41</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003865</t>
+          <t>007056</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票C</t>
+          <t>银华积极精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.41</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002269</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>银华大数据灵活配置定期开放混合</t>
+          <t>创金合信量化多因子股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005498</t>
+          <t>002326</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华积极成长混合</t>
+          <t>银华聚利灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>81.66</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005520</t>
+          <t>010031</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国投瑞银创新医疗灵活配置混合</t>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004905</t>
+          <t>009513</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华泰柏瑞生物医药灵活配置混合A</t>
+          <t>创金合信同顺创业板精选股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010031</t>
+          <t>009514</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰柏瑞生物医药灵活配置混合C</t>
+          <t>创金合信同顺创业板精选股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009513</t>
+          <t>960024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创金合信同顺创业板精选股票A</t>
+          <t>嘉实成长收益混合H</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009514</t>
+          <t>003865</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>创金合信同顺创业板精选股票C</t>
+          <t>创金合信量化多因子股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2075,4 +2076,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6168</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5720</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001524</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2968,4 +2969,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2461</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2461</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2908</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3481,4 +3482,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3490,7 +3491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3501,17 +3502,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3521,14 +3542,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.49</v>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3537,14 +3580,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.78</v>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1730</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3553,14 +3618,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.73</v>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3189</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3569,13 +3656,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004480</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝智慧产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3927,7 +3928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3938,17 +3939,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3958,14 +3979,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.25</v>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3974,14 +4017,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.49</v>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7943</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3990,14 +4055,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.78</v>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5923</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4006,14 +4093,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.73</v>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4022,13 +4131,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4174,7 +4175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4185,17 +4186,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4205,14 +4226,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.56</v>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4221,14 +4264,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.25</v>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4237,14 +4302,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.49</v>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6386</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4253,14 +4340,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.78</v>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4269,14 +4378,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.73</v>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -4285,13 +4416,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3.07</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.56</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>3.25</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>4.49</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>3.78</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>2.73</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.1</v>
       </c>
     </row>
@@ -600,6 +617,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,7 +1466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1641,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2153,7 +2414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3045,7 +3306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3747,7 +4008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300685-艾德生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3.07</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>2.56</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.25</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>4.49</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>3.78</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>2.73</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,960 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2554</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2165</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8694</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5688</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4103</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3532</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005515</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005516</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -673,36 +1620,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160916</t>
+          <t>070001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成优选混合（LOF）</t>
+          <t>嘉实成长收益混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.34</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69.51</t>
+          <t>72.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3464</t>
+          <t>0.5913</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1658,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010738</t>
+          <t>160916</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成优选升级一年持有期混合A</t>
+          <t>大成优选混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>10.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>69.50</t>
+          <t>79.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1128</t>
+          <t>0.5375</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1696,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010739</t>
+          <t>010738</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成优选升级一年持有期混合C</t>
+          <t>大成优选升级一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>69.50</t>
+          <t>80.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.1893</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1734,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006231</t>
+          <t>010739</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合A</t>
+          <t>大成优选升级一年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>55.44</t>
+          <t>80.43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -825,12 +1772,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006232</t>
+          <t>960024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合C</t>
+          <t>嘉实成长收益混合H</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -840,12 +1787,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>55.44</t>
+          <t>72.69</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -861,6 +1808,250 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1220,7 +2411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1466,7 +2657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1902,7 +3093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2414,7 +3605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3306,7 +4497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4006,934 +5197,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002269</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华大数据灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2554</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>960024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实成长收益混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2165</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>070001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实成长收益混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>35.99</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>74.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2165</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161914</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18.86</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8694</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003230</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.81</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5688</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005805</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞医疗健康混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4715</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004905</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞生物医药灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4103</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001280</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华聚利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3532</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005498</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华积极成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2499</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003231</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1705</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161915</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1208</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002161</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银华万物互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.22</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>21.17</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1014</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007056</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华积极精选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008884</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博远博锐混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>74.93</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002326</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银华聚利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010031</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华泰柏瑞生物医药灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.21</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011453</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华泰柏瑞医疗健康混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005515</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>74.93</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005516</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>